--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -168,10 +168,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,7 +229,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,8 +256,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,7 +335,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -379,7 +383,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -411,7 +415,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -443,7 +447,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -475,7 +479,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -507,7 +511,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -539,7 +543,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -571,7 +575,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -603,7 +607,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -635,7 +639,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -667,7 +671,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -699,7 +703,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -731,7 +735,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -763,7 +767,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -795,7 +799,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -827,7 +831,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -859,7 +863,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -891,7 +895,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -923,7 +927,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -955,7 +959,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -987,7 +991,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1019,7 +1023,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1051,7 +1055,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1083,7 +1087,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1115,7 +1119,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1147,7 +1151,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1179,7 +1183,7 @@
       <c r="G28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
@@ -1211,7 +1215,7 @@
       <c r="G29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
@@ -1243,7 +1247,7 @@
       <c r="G30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
@@ -1275,7 +1279,7 @@
       <c r="G31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
@@ -1307,7 +1311,7 @@
       <c r="G32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
@@ -1339,7 +1343,7 @@
       <c r="G33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
@@ -1371,7 +1375,7 @@
       <c r="G34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="0" t="s">
@@ -1403,7 +1407,7 @@
       <c r="G35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -1435,7 +1439,7 @@
       <c r="G36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
@@ -1467,7 +1471,7 @@
       <c r="G37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="0" t="s">
@@ -1499,7 +1503,7 @@
       <c r="G38" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="0" t="s">
@@ -1531,7 +1535,7 @@
       <c r="G39" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="0" t="s">
@@ -1563,7 +1567,7 @@
       <c r="G40" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="0" t="s">
@@ -1595,7 +1599,7 @@
       <c r="G41" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="33">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -128,8 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -216,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +232,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,11 +340,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -369,7 +371,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -386,11 +388,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,11 +420,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +435,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -450,11 +452,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,11 +484,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -514,11 +516,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,11 +548,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -578,11 +580,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,11 +612,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -642,11 +644,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,11 +676,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -706,11 +708,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,11 +740,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -770,11 +772,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,11 +804,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -834,11 +836,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,11 +868,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -898,11 +900,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,11 +932,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -962,11 +964,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,11 +996,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1026,11 +1028,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,11 +1060,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1090,11 +1092,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,11 +1124,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1154,11 +1156,11 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
@@ -1186,11 +1188,11 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>13</v>
@@ -1218,11 +1220,11 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
+      <c r="I29" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>13</v>
@@ -1250,11 +1252,11 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
+      <c r="I30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>13</v>
@@ -1282,11 +1284,11 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>13</v>
@@ -1314,11 +1316,11 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>13</v>
@@ -1346,11 +1348,11 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
+      <c r="I33" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>13</v>
@@ -1378,11 +1380,11 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>16</v>
+      <c r="I34" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>13</v>
@@ -1410,11 +1412,11 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>16</v>
+      <c r="I35" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>13</v>
@@ -1442,11 +1444,11 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>16</v>
+      <c r="I36" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>13</v>
@@ -1474,22 +1476,22 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
+      <c r="I37" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>13</v>
@@ -1506,22 +1508,22 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
+      <c r="I38" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1538,22 +1540,22 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
+      <c r="I39" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>13</v>
@@ -1570,22 +1572,22 @@
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>16</v>
+      <c r="I40" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>13</v>
@@ -1602,11 +1604,11 @@
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>16</v>
+      <c r="I41" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="36">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">10.29.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -106,16 +106,25 @@
     <t xml:space="preserve">JR2 10</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5.19</t>
+    <t xml:space="preserve">06.5.19</t>
   </si>
   <si>
     <t xml:space="preserve">2a 10</t>
   </si>
   <si>
+    <t xml:space="preserve">06.5.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">2a 16</t>
   </si>
   <si>
+    <t xml:space="preserve">06.5.21</t>
+  </si>
+  <si>
     <t xml:space="preserve">2a 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.5.22</t>
   </si>
   <si>
     <t xml:space="preserve">2a 22</t>
@@ -258,13 +267,15 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -340,7 +351,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -388,7 +400,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -420,7 +433,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -452,7 +466,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -484,7 +499,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -516,7 +532,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -548,7 +565,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -580,7 +598,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -612,7 +631,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -644,7 +664,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -676,7 +697,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -708,7 +730,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -740,7 +763,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -772,7 +796,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -804,7 +829,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -836,7 +862,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -868,7 +895,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -900,7 +928,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -932,7 +961,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -964,7 +994,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -996,7 +1027,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1028,7 +1060,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1060,7 +1093,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1092,7 +1126,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1124,7 +1159,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1156,7 +1192,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1182,13 +1219,14 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -1214,13 +1252,14 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -1246,13 +1285,14 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -1278,13 +1318,14 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -1310,13 +1351,14 @@
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -1342,13 +1384,14 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="5" t="b">
+      <c r="I33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -1374,13 +1417,14 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="5" t="b">
+      <c r="I34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -1406,13 +1450,14 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="5" t="b">
+      <c r="I35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -1438,13 +1483,14 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="5" t="b">
+      <c r="I36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -1470,13 +1516,14 @@
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="5" t="b">
+      <c r="I37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
@@ -1502,13 +1549,14 @@
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="5" t="b">
+      <c r="I38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
@@ -1517,13 +1565,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1534,13 +1582,14 @@
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="5" t="b">
+      <c r="I39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
@@ -1549,13 +1598,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>13</v>
@@ -1566,13 +1615,14 @@
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="5" t="b">
+      <c r="I40" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="0" t="s">
@@ -1581,13 +1631,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>13</v>
@@ -1598,13 +1648,14 @@
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="5" t="b">
+      <c r="I41" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="33">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -106,25 +106,16 @@
     <t xml:space="preserve">JR2 10</t>
   </si>
   <si>
-    <t xml:space="preserve">06.5.19</t>
+    <t xml:space="preserve">06.05.19</t>
   </si>
   <si>
     <t xml:space="preserve">2a 10</t>
   </si>
   <si>
-    <t xml:space="preserve">06.5.20</t>
-  </si>
-  <si>
     <t xml:space="preserve">2a 16</t>
   </si>
   <si>
-    <t xml:space="preserve">06.5.21</t>
-  </si>
-  <si>
     <t xml:space="preserve">2a 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.5.22</t>
   </si>
   <si>
     <t xml:space="preserve">2a 22</t>
@@ -267,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38:A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1565,13 +1556,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1598,13 +1589,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>13</v>
@@ -1631,13 +1622,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>13</v>

--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">10.29.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -258,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.29.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B242AFF8-8E21-4C41-8831-E185A335BAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94115FC2-25FC-9B4F-AF4F-7064845BD8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="18">
   <si>
     <t>rnaDate</t>
   </si>
@@ -83,14 +83,14 @@
   <si>
     <t>06.05.19</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,9 +545,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -594,9 +593,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -627,9 +625,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -660,9 +657,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -693,9 +689,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -726,9 +721,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -759,9 +753,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -792,9 +785,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -825,9 +817,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -858,9 +849,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -891,9 +881,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -924,9 +913,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -957,9 +945,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -990,9 +977,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1023,9 +1009,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1056,9 +1041,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1089,9 +1073,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1122,9 +1105,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1155,9 +1137,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1188,9 +1169,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1221,9 +1201,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1254,9 +1233,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1287,9 +1265,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1320,9 +1297,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1353,9 +1329,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1386,9 +1361,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1419,9 +1393,8 @@
       <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I28" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -1452,9 +1425,8 @@
       <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I29" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1485,9 +1457,8 @@
       <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I30" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1518,9 +1489,8 @@
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I31" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1551,9 +1521,8 @@
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I32" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -1584,9 +1553,8 @@
       <c r="H33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I33" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -1617,9 +1585,8 @@
       <c r="H34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I34" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -1650,9 +1617,8 @@
       <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I35" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -1683,9 +1649,8 @@
       <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1716,9 +1681,8 @@
       <c r="H37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I37" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -1749,9 +1713,8 @@
       <c r="H38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I38" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -1782,9 +1745,8 @@
       <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I39" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -1815,9 +1777,8 @@
       <c r="H40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I40" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -1848,13 +1809,15 @@
       <c r="H41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I41" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
